--- a/Domenique/paper plots (final)/Dardenne.xlsx
+++ b/Domenique/paper plots (final)/Dardenne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="19200" windowHeight="6953"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="19200" windowHeight="6953"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -480,6 +480,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>313</v>
+      </c>
+      <c r="B2" s="1">
+        <v>257</v>
+      </c>
       <c r="C2" s="1">
         <v>6.9080000000000004</v>
       </c>
@@ -509,6 +515,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>313</v>
+      </c>
+      <c r="B3" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C3" s="1">
         <v>8.2080000000000002</v>
       </c>
@@ -538,6 +550,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>313</v>
+      </c>
+      <c r="B4" s="1">
+        <v>283</v>
+      </c>
       <c r="C4" s="1">
         <v>9.3140000000000001</v>
       </c>
@@ -567,6 +585,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>323</v>
+      </c>
+      <c r="B5" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C5" s="1">
         <v>8.2059999999999995</v>
       </c>
@@ -596,6 +620,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>323</v>
+      </c>
+      <c r="B6" s="1">
+        <v>278</v>
+      </c>
       <c r="C6" s="1">
         <v>9.1140000000000008</v>
       </c>
@@ -625,6 +655,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>323</v>
+      </c>
+      <c r="B7" s="1">
+        <v>288</v>
+      </c>
       <c r="C7" s="1">
         <v>10.02</v>
       </c>
@@ -654,6 +690,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>257</v>
+      </c>
       <c r="C8" s="1">
         <v>7.31</v>
       </c>
@@ -683,6 +725,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>330</v>
+      </c>
+      <c r="B9" s="1">
+        <v>271.2</v>
+      </c>
       <c r="C9" s="1">
         <v>9.0090000000000003</v>
       </c>
@@ -712,6 +760,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>332</v>
+      </c>
+      <c r="B10" s="1">
+        <v>283</v>
+      </c>
       <c r="C10" s="1">
         <v>9.9169999999999998</v>
       </c>
@@ -741,6 +795,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>296</v>
+      </c>
+      <c r="B11" s="1">
+        <v>257</v>
+      </c>
       <c r="C11" s="1">
         <v>6.4020000000000001</v>
       </c>
@@ -770,6 +830,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>313</v>
+      </c>
+      <c r="B12" s="1">
+        <v>257</v>
+      </c>
       <c r="C12" s="1">
         <v>6.6070000000000002</v>
       </c>
@@ -799,6 +865,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>313</v>
+      </c>
+      <c r="B13" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C13" s="1">
         <v>8.0090000000000003</v>
       </c>
@@ -828,6 +900,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>323</v>
+      </c>
+      <c r="B14" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C14" s="1">
         <v>8.2129999999999992</v>
       </c>
@@ -857,6 +935,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>323</v>
+      </c>
+      <c r="B15" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C15" s="1">
         <v>8.2110000000000003</v>
       </c>
@@ -886,6 +970,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="B16" s="1">
+        <v>278</v>
+      </c>
       <c r="C16" s="1">
         <v>9.1159999999999997</v>
       </c>
@@ -914,7 +1004,13 @@
         <v>0.94430000000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>326</v>
+      </c>
+      <c r="B17" s="1">
+        <v>257</v>
+      </c>
       <c r="C17" s="1">
         <v>7.8079999999999998</v>
       </c>
@@ -943,7 +1039,13 @@
         <v>0.86180000000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>328</v>
+      </c>
+      <c r="B18" s="1">
+        <v>251.8</v>
+      </c>
       <c r="C18" s="1">
         <v>6.4059999999999997</v>
       </c>
@@ -972,7 +1074,13 @@
         <v>0.83660000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>333</v>
+      </c>
+      <c r="B19" s="1">
+        <v>257</v>
+      </c>
       <c r="C19" s="1">
         <v>8.1110000000000007</v>
       </c>
@@ -1001,7 +1109,13 @@
         <v>0.85389999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>333.1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C20" s="1">
         <v>9.1080000000000005</v>
       </c>
@@ -1030,7 +1144,13 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>340</v>
+      </c>
+      <c r="B21" s="1">
+        <v>263</v>
+      </c>
       <c r="C21" s="1">
         <v>8.7119999999999997</v>
       </c>
@@ -1059,7 +1179,13 @@
         <v>0.87080000000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>340</v>
+      </c>
+      <c r="B22" s="1">
+        <v>273.2</v>
+      </c>
       <c r="C22" s="1">
         <v>9.7110000000000003</v>
       </c>
@@ -1088,7 +1214,13 @@
         <v>0.9052</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>340</v>
+      </c>
+      <c r="B23" s="1">
+        <v>285.10000000000002</v>
+      </c>
       <c r="C23" s="1">
         <v>10.02</v>
       </c>
@@ -1117,7 +1249,13 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>296</v>
+      </c>
+      <c r="B24" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C24" s="1">
         <v>4.5019999999999998</v>
       </c>
@@ -1146,7 +1284,13 @@
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>296</v>
+      </c>
+      <c r="B25" s="1">
+        <v>257</v>
+      </c>
       <c r="C25" s="1">
         <v>6.4</v>
       </c>
@@ -1175,7 +1319,13 @@
         <v>0.9234</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>313</v>
+      </c>
+      <c r="B26" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C26" s="1">
         <v>5.9</v>
       </c>
@@ -1204,7 +1354,13 @@
         <v>0.86060000000000003</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>313</v>
+      </c>
+      <c r="B27" s="1">
+        <v>257</v>
+      </c>
       <c r="C27" s="1">
         <v>7.4020000000000001</v>
       </c>
@@ -1233,7 +1389,13 @@
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>313</v>
+      </c>
+      <c r="B28" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C28" s="1">
         <v>8.1150000000000002</v>
       </c>
@@ -1262,7 +1424,13 @@
         <v>0.94540000000000002</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>323</v>
+      </c>
+      <c r="B29" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C29" s="1">
         <v>6.109</v>
       </c>
@@ -1291,7 +1459,13 @@
         <v>0.84809999999999997</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>323</v>
+      </c>
+      <c r="B30" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C30" s="1">
         <v>8.4149999999999991</v>
       </c>
@@ -1320,7 +1494,13 @@
         <v>0.92330000000000001</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>323</v>
+      </c>
+      <c r="B31" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C31" s="1">
         <v>8.2110000000000003</v>
       </c>
@@ -1349,7 +1529,13 @@
         <v>0.92490000000000006</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="B32" s="1">
+        <v>278</v>
+      </c>
       <c r="C32" s="1">
         <v>9.016</v>
       </c>
@@ -1378,7 +1564,13 @@
         <v>0.96609999999999996</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>326</v>
+      </c>
+      <c r="B33" s="1">
+        <v>257</v>
+      </c>
       <c r="C33" s="1">
         <v>8.0129999999999999</v>
       </c>
@@ -1407,7 +1599,13 @@
         <v>0.88149999999999995</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>331.2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>255.1</v>
+      </c>
       <c r="C34" s="1">
         <v>8.4109999999999996</v>
       </c>
@@ -1436,7 +1634,13 @@
         <v>0.86719999999999997</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>333</v>
+      </c>
+      <c r="B35" s="1">
+        <v>257</v>
+      </c>
       <c r="C35" s="1">
         <v>8.7140000000000004</v>
       </c>
@@ -1465,7 +1669,13 @@
         <v>0.87209999999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>333</v>
+      </c>
+      <c r="B36" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C36" s="1">
         <v>8.8179999999999996</v>
       </c>
@@ -1494,7 +1704,13 @@
         <v>0.91849999999999998</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>333</v>
+      </c>
+      <c r="B37" s="1">
+        <v>288</v>
+      </c>
       <c r="C37" s="1">
         <v>10.02</v>
       </c>
@@ -1523,7 +1739,13 @@
         <v>0.97970000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>340</v>
+      </c>
+      <c r="B38" s="1">
+        <v>263</v>
+      </c>
       <c r="C38" s="1">
         <v>8.8130000000000006</v>
       </c>
@@ -1552,7 +1774,13 @@
         <v>0.88959999999999995</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>340</v>
+      </c>
+      <c r="B39" s="1">
+        <v>273.2</v>
+      </c>
       <c r="C39" s="1">
         <v>9.718</v>
       </c>
@@ -1581,7 +1809,13 @@
         <v>0.92469999999999997</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>340</v>
+      </c>
+      <c r="B40" s="1">
+        <v>285.10000000000002</v>
+      </c>
       <c r="C40" s="1">
         <v>9.9179999999999993</v>
       </c>
@@ -1610,7 +1844,13 @@
         <v>0.96120000000000005</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>295.8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>272</v>
+      </c>
       <c r="C41" s="1">
         <v>8.1050000000000004</v>
       </c>
@@ -1639,7 +1879,13 @@
         <v>0.97829999999999995</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>296</v>
+      </c>
+      <c r="B42" s="1">
+        <v>257</v>
+      </c>
       <c r="C42" s="1">
         <v>6.6070000000000002</v>
       </c>
@@ -1668,7 +1914,13 @@
         <v>0.93669999999999998</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>297.2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C43" s="1">
         <v>6.2030000000000003</v>
       </c>
@@ -1697,7 +1949,13 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>313</v>
+      </c>
+      <c r="B44" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C44" s="1">
         <v>7</v>
       </c>
@@ -1726,7 +1984,13 @@
         <v>0.87190000000000001</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>313</v>
+      </c>
+      <c r="B45" s="1">
+        <v>257</v>
+      </c>
       <c r="C45" s="1">
         <v>7.5060000000000002</v>
       </c>
@@ -1755,7 +2019,13 @@
         <v>0.91239999999999999</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>313</v>
+      </c>
+      <c r="B46" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C46" s="1">
         <v>8.3149999999999995</v>
       </c>
@@ -1784,7 +2054,13 @@
         <v>0.95860000000000001</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>323</v>
+      </c>
+      <c r="B47" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C47" s="1">
         <v>7.4009999999999998</v>
       </c>
@@ -1813,7 +2089,13 @@
         <v>0.85929999999999995</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>323</v>
+      </c>
+      <c r="B48" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C48" s="1">
         <v>8.6159999999999997</v>
       </c>
@@ -1842,7 +2124,13 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>326</v>
+      </c>
+      <c r="B49" s="1">
+        <v>257</v>
+      </c>
       <c r="C49" s="1">
         <v>8.8140000000000001</v>
       </c>
@@ -1871,7 +2159,13 @@
         <v>0.89259999999999995</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>327.7</v>
+      </c>
+      <c r="B50" s="1">
+        <v>278</v>
+      </c>
       <c r="C50" s="1">
         <v>10.119999999999999</v>
       </c>
@@ -1900,7 +2194,13 @@
         <v>0.96830000000000005</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>333</v>
+      </c>
+      <c r="B51" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C51" s="1">
         <v>9.0180000000000007</v>
       </c>
@@ -1929,7 +2229,13 @@
         <v>0.9304</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>336</v>
+      </c>
+      <c r="B52" s="1">
+        <v>259.3</v>
+      </c>
       <c r="C52" s="1">
         <v>9.3179999999999996</v>
       </c>
@@ -1958,7 +2264,13 @@
         <v>0.88939999999999997</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>336</v>
+      </c>
+      <c r="B53" s="1">
+        <v>273.2</v>
+      </c>
       <c r="C53" s="1">
         <v>9.6189999999999998</v>
       </c>
@@ -1987,7 +2299,13 @@
         <v>0.94269999999999998</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>340</v>
+      </c>
+      <c r="B54" s="1">
+        <v>263</v>
+      </c>
       <c r="C54" s="1">
         <v>9.4179999999999993</v>
       </c>
@@ -2016,7 +2334,13 @@
         <v>0.8992</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>340</v>
+      </c>
+      <c r="B55" s="1">
+        <v>278</v>
+      </c>
       <c r="C55" s="1">
         <v>10.220000000000001</v>
       </c>
@@ -2045,7 +2369,13 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>296.2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C56" s="1">
         <v>5.5019999999999998</v>
       </c>
@@ -2074,7 +2404,13 @@
         <v>0.90359999999999996</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>313</v>
+      </c>
+      <c r="B57" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C57" s="1">
         <v>7.1020000000000003</v>
       </c>
@@ -2103,7 +2439,13 @@
         <v>0.87890000000000001</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>313</v>
+      </c>
+      <c r="B58" s="1">
+        <v>257</v>
+      </c>
       <c r="C58" s="1">
         <v>7.3070000000000004</v>
       </c>
@@ -2132,7 +2474,13 @@
         <v>0.9204</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>313</v>
+      </c>
+      <c r="B59" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C59" s="1">
         <v>8.3109999999999999</v>
       </c>
@@ -2161,7 +2509,13 @@
         <v>0.96630000000000005</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>323</v>
+      </c>
+      <c r="B60" s="1">
+        <v>248.2</v>
+      </c>
       <c r="C60" s="1">
         <v>6.61</v>
       </c>
@@ -2190,7 +2544,13 @@
         <v>0.86860000000000004</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>323</v>
+      </c>
+      <c r="B61" s="1">
+        <v>266.39999999999998</v>
+      </c>
       <c r="C61" s="1">
         <v>8.8130000000000006</v>
       </c>
@@ -2219,7 +2579,13 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>326</v>
+      </c>
+      <c r="B62" s="1">
+        <v>257</v>
+      </c>
       <c r="C62" s="1">
         <v>8.7080000000000002</v>
       </c>
@@ -2248,7 +2614,13 @@
         <v>0.89980000000000004</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>333</v>
+      </c>
+      <c r="B63" s="1">
+        <v>257</v>
+      </c>
       <c r="C63" s="1">
         <v>9.0129999999999999</v>
       </c>
@@ -2277,7 +2649,13 @@
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>333.1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>268.2</v>
+      </c>
       <c r="C64" s="1">
         <v>9.1110000000000007</v>
       </c>

--- a/Domenique/paper plots (final)/Dardenne.xlsx
+++ b/Domenique/paper plots (final)/Dardenne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="690" windowWidth="19200" windowHeight="6953"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="19200" windowHeight="6953"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Injection superheat (K)</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>T_evap [K]</t>
+  </si>
+  <si>
+    <t>Actual Heat Loss</t>
+  </si>
+  <si>
+    <t>Predicted Heat Loss</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -441,10 +447,12 @@
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="16384" width="8.73046875" style="1"/>
+    <col min="12" max="12" width="22.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -478,8 +486,14 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>313</v>
       </c>
@@ -499,7 +513,7 @@
         <v>0.28249999999999997</v>
       </c>
       <c r="G2">
-        <v>0.28239999999999998</v>
+        <v>0.28449999999999998</v>
       </c>
       <c r="H2">
         <v>0.61819999999999997</v>
@@ -513,8 +527,14 @@
       <c r="K2">
         <v>0.87070000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="1">
+        <v>4.649</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4.4004346847851892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>313</v>
       </c>
@@ -534,7 +554,7 @@
         <v>0.19420000000000001</v>
       </c>
       <c r="G3">
-        <v>0.19389999999999999</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="H3">
         <v>0.65969999999999995</v>
@@ -548,8 +568,14 @@
       <c r="K3">
         <v>0.9153</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" s="1">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3.1017533805239683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>313</v>
       </c>
@@ -569,7 +595,7 @@
         <v>6.4909999999999995E-2</v>
       </c>
       <c r="G4">
-        <v>6.4820000000000003E-2</v>
+        <v>0.1237</v>
       </c>
       <c r="H4">
         <v>0.66679999999999995</v>
@@ -583,8 +609,14 @@
       <c r="K4">
         <v>0.95669999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" s="1">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.107395617801656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>323</v>
       </c>
@@ -604,7 +636,7 @@
         <v>0.3034</v>
       </c>
       <c r="G5">
-        <v>0.30330000000000001</v>
+        <v>0.30409999999999998</v>
       </c>
       <c r="H5">
         <v>0.63770000000000004</v>
@@ -618,8 +650,14 @@
       <c r="K5">
         <v>0.89559999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" s="1">
+        <v>6.343</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.1176776399087145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>323</v>
       </c>
@@ -639,7 +677,7 @@
         <v>0.19289999999999999</v>
       </c>
       <c r="G6">
-        <v>0.193</v>
+        <v>0.21179999999999999</v>
       </c>
       <c r="H6">
         <v>0.68769999999999998</v>
@@ -653,8 +691,14 @@
       <c r="K6">
         <v>0.93540000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L6" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.4690332341122749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>323</v>
       </c>
@@ -674,7 +718,7 @@
         <v>0.11119999999999999</v>
       </c>
       <c r="G7">
-        <v>0.1113</v>
+        <v>0.1605</v>
       </c>
       <c r="H7">
         <v>0.6895</v>
@@ -688,8 +732,14 @@
       <c r="K7">
         <v>0.95989999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L7" s="1">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5.1283793556487298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>326.10000000000002</v>
       </c>
@@ -709,7 +759,7 @@
         <v>0.44729999999999998</v>
       </c>
       <c r="G8">
-        <v>0.44740000000000002</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="H8">
         <v>0.57740000000000002</v>
@@ -723,8 +773,14 @@
       <c r="K8">
         <v>0.85470000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L8" s="1">
+        <v>4.1959999999999997</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.8541995871289609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>330</v>
       </c>
@@ -744,7 +800,7 @@
         <v>0.34989999999999999</v>
       </c>
       <c r="G9">
-        <v>0.3498</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="H9">
         <v>0.64680000000000004</v>
@@ -758,8 +814,14 @@
       <c r="K9">
         <v>0.90380000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L9" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.2411954665818534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>332</v>
       </c>
@@ -779,7 +841,7 @@
         <v>0.2477</v>
       </c>
       <c r="G10">
-        <v>0.24790000000000001</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="H10">
         <v>0.68700000000000006</v>
@@ -793,8 +855,14 @@
       <c r="K10">
         <v>0.93679999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L10" s="1">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3.3335932638618724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>296</v>
       </c>
@@ -814,7 +882,7 @@
         <v>0.13420000000000001</v>
       </c>
       <c r="G11">
-        <v>0.13400000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H11">
         <v>0.61809999999999998</v>
@@ -828,8 +896,14 @@
       <c r="K11">
         <v>0.90169999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L11" s="1">
+        <v>4.7560000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.4942705277816084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>313</v>
       </c>
@@ -849,7 +923,7 @@
         <v>0.2823</v>
       </c>
       <c r="G12">
-        <v>0.2823</v>
+        <v>0.26529999999999998</v>
       </c>
       <c r="H12">
         <v>0.63370000000000004</v>
@@ -863,8 +937,14 @@
       <c r="K12">
         <v>0.88029999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L12" s="1">
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4.5928820639086512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>313</v>
       </c>
@@ -884,7 +964,7 @@
         <v>0.19189999999999999</v>
       </c>
       <c r="G13">
-        <v>0.1918</v>
+        <v>0.19089999999999999</v>
       </c>
       <c r="H13">
         <v>0.68359999999999999</v>
@@ -898,8 +978,14 @@
       <c r="K13">
         <v>0.92490000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L13" s="1">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.2462008537947553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>323</v>
       </c>
@@ -919,7 +1005,7 @@
         <v>0.29530000000000001</v>
       </c>
       <c r="G14">
-        <v>0.29530000000000001</v>
+        <v>0.28770000000000001</v>
       </c>
       <c r="H14">
         <v>0.67200000000000004</v>
@@ -933,8 +1019,14 @@
       <c r="K14">
         <v>0.9042</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L14" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3.4532495774296352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>323</v>
       </c>
@@ -954,7 +1046,7 @@
         <v>0.30309999999999998</v>
       </c>
       <c r="G15">
-        <v>0.30320000000000003</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="H15">
         <v>0.66500000000000004</v>
@@ -968,8 +1060,14 @@
       <c r="K15">
         <v>0.90480000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L15" s="1">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.2877035457742716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>323.10000000000002</v>
       </c>
@@ -989,7 +1087,7 @@
         <v>0.18740000000000001</v>
       </c>
       <c r="G16">
-        <v>0.1875</v>
+        <v>0.2031</v>
       </c>
       <c r="H16">
         <v>0.71240000000000003</v>
@@ -1003,8 +1101,14 @@
       <c r="K16">
         <v>0.94430000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L16" s="1">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2.7136718389772674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>326</v>
       </c>
@@ -1024,7 +1128,7 @@
         <v>0.43269999999999997</v>
       </c>
       <c r="G17">
-        <v>0.43259999999999998</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="H17">
         <v>0.59240000000000004</v>
@@ -1038,8 +1142,14 @@
       <c r="K17">
         <v>0.86180000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L17" s="1">
+        <v>6.2519999999999998</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5.3836794411528812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>328</v>
       </c>
@@ -1059,7 +1169,7 @@
         <v>0.4526</v>
       </c>
       <c r="G18">
-        <v>0.45269999999999999</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="H18">
         <v>0.54259999999999997</v>
@@ -1073,8 +1183,14 @@
       <c r="K18">
         <v>0.83660000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L18" s="1">
+        <v>5.6180000000000003</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5.6537476800704063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>333</v>
       </c>
@@ -1094,7 +1210,7 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="G19">
-        <v>0.55679999999999996</v>
+        <v>0.55930000000000002</v>
       </c>
       <c r="H19">
         <v>0.54790000000000005</v>
@@ -1108,8 +1224,14 @@
       <c r="K19">
         <v>0.85389999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L19" s="1">
+        <v>7.4359999999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5.6705191017475576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>333.1</v>
       </c>
@@ -1129,7 +1251,7 @@
         <v>0.41039999999999999</v>
       </c>
       <c r="G20">
-        <v>0.41010000000000002</v>
+        <v>0.40589999999999998</v>
       </c>
       <c r="H20">
         <v>0.65229999999999999</v>
@@ -1143,8 +1265,14 @@
       <c r="K20">
         <v>0.89690000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L20" s="1">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.9072352038101283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>340</v>
       </c>
@@ -1164,7 +1292,7 @@
         <v>0.63019999999999998</v>
       </c>
       <c r="G21">
-        <v>0.63060000000000005</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="H21">
         <v>0.5857</v>
@@ -1178,8 +1306,14 @@
       <c r="K21">
         <v>0.87080000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L21" s="1">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3.5471634953081104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>340</v>
       </c>
@@ -1199,7 +1333,7 @@
         <v>0.47860000000000003</v>
       </c>
       <c r="G22">
-        <v>0.47839999999999999</v>
+        <v>0.46139999999999998</v>
       </c>
       <c r="H22">
         <v>0.63890000000000002</v>
@@ -1213,8 +1347,14 @@
       <c r="K22">
         <v>0.9052</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L22" s="1">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.0001796904823466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>340</v>
       </c>
@@ -1234,7 +1374,7 @@
         <v>0.34029999999999999</v>
       </c>
       <c r="G23">
-        <v>0.34039999999999998</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="H23">
         <v>0.69789999999999996</v>
@@ -1248,8 +1388,14 @@
       <c r="K23">
         <v>0.94079999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L23" s="1">
+        <v>2.3660000000000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.5939978963585584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>296</v>
       </c>
@@ -1269,7 +1415,7 @@
         <v>0.1893</v>
       </c>
       <c r="G24">
-        <v>0.18940000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H24">
         <v>0.57040000000000002</v>
@@ -1283,8 +1429,14 @@
       <c r="K24">
         <v>0.88549999999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L24" s="1">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3.9797807644582157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>296</v>
       </c>
@@ -1304,7 +1456,7 @@
         <v>0.12920000000000001</v>
       </c>
       <c r="G25">
-        <v>0.12909999999999999</v>
+        <v>0.12379999999999999</v>
       </c>
       <c r="H25">
         <v>0.62980000000000003</v>
@@ -1318,8 +1470,14 @@
       <c r="K25">
         <v>0.9234</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L25" s="1">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3.3897044232264126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>313</v>
       </c>
@@ -1339,7 +1497,7 @@
         <v>0.33810000000000001</v>
       </c>
       <c r="G26">
-        <v>0.33800000000000002</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="H26">
         <v>0.56910000000000005</v>
@@ -1353,8 +1511,14 @@
       <c r="K26">
         <v>0.86060000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L26" s="1">
+        <v>3.032</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5.3312349845344675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>313</v>
       </c>
@@ -1374,7 +1538,7 @@
         <v>0.2581</v>
       </c>
       <c r="G27">
-        <v>0.2581</v>
+        <v>0.24</v>
       </c>
       <c r="H27">
         <v>0.62429999999999997</v>
@@ -1388,8 +1552,14 @@
       <c r="K27">
         <v>0.89880000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L27" s="1">
+        <v>5.6589999999999998</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4.5577260554266168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>313</v>
       </c>
@@ -1409,7 +1579,7 @@
         <v>0.1724</v>
       </c>
       <c r="G28">
-        <v>0.17230000000000001</v>
+        <v>0.1681</v>
       </c>
       <c r="H28">
         <v>0.69199999999999995</v>
@@ -1423,8 +1593,14 @@
       <c r="K28">
         <v>0.94540000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L28" s="1">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3.4359068002269657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>323</v>
       </c>
@@ -1444,7 +1620,7 @@
         <v>0.44359999999999999</v>
       </c>
       <c r="G29">
-        <v>0.44379999999999997</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="H29">
         <v>0.5373</v>
@@ -1458,8 +1634,14 @@
       <c r="K29">
         <v>0.84809999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L29" s="1">
+        <v>4.984</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5.2496042130436651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>323</v>
       </c>
@@ -1479,7 +1661,7 @@
         <v>0.25650000000000001</v>
       </c>
       <c r="G30">
-        <v>0.25640000000000002</v>
+        <v>0.25490000000000002</v>
       </c>
       <c r="H30">
         <v>0.67859999999999998</v>
@@ -1493,8 +1675,14 @@
       <c r="K30">
         <v>0.92330000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L30" s="1">
+        <v>3.661</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3.6959736541755461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>323</v>
       </c>
@@ -1514,7 +1702,7 @@
         <v>0.26750000000000002</v>
       </c>
       <c r="G31">
-        <v>0.2676</v>
+        <v>0.25169999999999998</v>
       </c>
       <c r="H31">
         <v>0.68049999999999999</v>
@@ -1528,8 +1716,14 @@
       <c r="K31">
         <v>0.92490000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L31" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3.2693213571873194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>323.10000000000002</v>
       </c>
@@ -1549,7 +1743,7 @@
         <v>0.1724</v>
       </c>
       <c r="G32">
-        <v>0.17269999999999999</v>
+        <v>0.1749</v>
       </c>
       <c r="H32">
         <v>0.7177</v>
@@ -1563,8 +1757,14 @@
       <c r="K32">
         <v>0.96609999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L32" s="1">
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2.9167539211813618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>326</v>
       </c>
@@ -1584,7 +1784,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="G33">
-        <v>0.39219999999999999</v>
+        <v>0.38080000000000003</v>
       </c>
       <c r="H33">
         <v>0.5988</v>
@@ -1598,8 +1798,14 @@
       <c r="K33">
         <v>0.88149999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L33" s="1">
+        <v>4.4509999999999996</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4.5771285984719476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>331.2</v>
       </c>
@@ -1619,7 +1825,7 @@
         <v>0.5</v>
       </c>
       <c r="G34">
-        <v>0.49990000000000001</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="H34">
         <v>0.54210000000000003</v>
@@ -1633,8 +1839,14 @@
       <c r="K34">
         <v>0.86719999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L34" s="1">
+        <v>6.665</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4.071094897513051</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>333</v>
       </c>
@@ -1654,7 +1866,7 @@
         <v>0.4985</v>
       </c>
       <c r="G35">
-        <v>0.49819999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="H35">
         <v>0.57809999999999995</v>
@@ -1668,8 +1880,14 @@
       <c r="K35">
         <v>0.87209999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L35" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4.6535736378298207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>333</v>
       </c>
@@ -1689,7 +1907,7 @@
         <v>0.37180000000000002</v>
       </c>
       <c r="G36">
-        <v>0.37180000000000002</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="H36">
         <v>0.66310000000000002</v>
@@ -1703,8 +1921,14 @@
       <c r="K36">
         <v>0.91849999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L36" s="1">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="M36" s="1">
+        <v>3.3434886888750448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>333</v>
       </c>
@@ -1724,7 +1948,7 @@
         <v>0.1948</v>
       </c>
       <c r="G37">
-        <v>0.1951</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="H37">
         <v>0.74199999999999999</v>
@@ -1738,8 +1962,14 @@
       <c r="K37">
         <v>0.97970000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L37" s="1">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="M37" s="1">
+        <v>5.8854558806774717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>340</v>
       </c>
@@ -1759,7 +1989,7 @@
         <v>0.54779999999999995</v>
       </c>
       <c r="G38">
-        <v>0.54810000000000003</v>
+        <v>0.51429999999999998</v>
       </c>
       <c r="H38">
         <v>0.60309999999999997</v>
@@ -1773,8 +2003,14 @@
       <c r="K38">
         <v>0.88959999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L38" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3.0948057913460798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>340</v>
       </c>
@@ -1794,7 +2030,7 @@
         <v>0.42620000000000002</v>
       </c>
       <c r="G39">
-        <v>0.42599999999999999</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="H39">
         <v>0.67359999999999998</v>
@@ -1808,8 +2044,14 @@
       <c r="K39">
         <v>0.92469999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L39" s="1">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2.7709511927031691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>340</v>
       </c>
@@ -1829,7 +2071,7 @@
         <v>0.30709999999999998</v>
       </c>
       <c r="G40">
-        <v>0.30730000000000002</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="H40">
         <v>0.73089999999999999</v>
@@ -1843,8 +2085,14 @@
       <c r="K40">
         <v>0.96120000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L40" s="1">
+        <v>5.2329999999999997</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3.4327755121623786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>295.8</v>
       </c>
@@ -1864,7 +2112,7 @@
         <v>1.9990000000000001E-2</v>
       </c>
       <c r="G41">
-        <v>1.9859999999999999E-2</v>
+        <v>6.8580000000000002E-2</v>
       </c>
       <c r="H41">
         <v>0.55800000000000005</v>
@@ -1878,8 +2126,14 @@
       <c r="K41">
         <v>0.97829999999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L41" s="1">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3.6393080149825949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>296</v>
       </c>
@@ -1899,7 +2153,7 @@
         <v>0.1208</v>
       </c>
       <c r="G42">
-        <v>0.1208</v>
+        <v>0.1142</v>
       </c>
       <c r="H42">
         <v>0.61699999999999999</v>
@@ -1913,8 +2167,14 @@
       <c r="K42">
         <v>0.93669999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L42" s="1">
+        <v>2.661</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3.3856542110734638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>297.2</v>
       </c>
@@ -1934,7 +2194,7 @@
         <v>0.1769</v>
       </c>
       <c r="G43">
-        <v>0.1767</v>
+        <v>0.17019999999999999</v>
       </c>
       <c r="H43">
         <v>0.56279999999999997</v>
@@ -1948,8 +2208,14 @@
       <c r="K43">
         <v>0.89300000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L43" s="1">
+        <v>5.1289999999999996</v>
+      </c>
+      <c r="M43" s="1">
+        <v>4.2985773294519305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>313</v>
       </c>
@@ -1969,7 +2235,7 @@
         <v>0.31119999999999998</v>
       </c>
       <c r="G44">
-        <v>0.31119999999999998</v>
+        <v>0.30520000000000003</v>
       </c>
       <c r="H44">
         <v>0.56710000000000005</v>
@@ -1983,8 +2249,14 @@
       <c r="K44">
         <v>0.87190000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L44" s="1">
+        <v>3.1389999999999998</v>
+      </c>
+      <c r="M44" s="1">
+        <v>4.1431815964663921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>313</v>
       </c>
@@ -2004,7 +2276,7 @@
         <v>0.2397</v>
       </c>
       <c r="G45">
-        <v>0.2397</v>
+        <v>0.22140000000000001</v>
       </c>
       <c r="H45">
         <v>0.63009999999999999</v>
@@ -2018,8 +2290,14 @@
       <c r="K45">
         <v>0.91239999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L45" s="1">
+        <v>3.6789999999999998</v>
+      </c>
+      <c r="M45" s="1">
+        <v>4.0774715134994208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>313</v>
       </c>
@@ -2039,7 +2317,7 @@
         <v>0.15890000000000001</v>
       </c>
       <c r="G46">
-        <v>0.15890000000000001</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="H46">
         <v>0.67800000000000005</v>
@@ -2053,8 +2331,14 @@
       <c r="K46">
         <v>0.95860000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L46" s="1">
+        <v>2.919</v>
+      </c>
+      <c r="M46" s="1">
+        <v>3.2985164707878805</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>323</v>
       </c>
@@ -2074,7 +2358,7 @@
         <v>0.41270000000000001</v>
       </c>
       <c r="G47">
-        <v>0.4128</v>
+        <v>0.42870000000000003</v>
       </c>
       <c r="H47">
         <v>0.53290000000000004</v>
@@ -2088,8 +2372,14 @@
       <c r="K47">
         <v>0.85929999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L47" s="1">
+        <v>3.6120000000000001</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3.7036749719217945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>323</v>
       </c>
@@ -2109,7 +2399,7 @@
         <v>0.25119999999999998</v>
       </c>
       <c r="G48">
-        <v>0.25130000000000002</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="H48">
         <v>0.66339999999999999</v>
@@ -2123,8 +2413,14 @@
       <c r="K48">
         <v>0.93779999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L48" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2.7306098549249511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>326</v>
       </c>
@@ -2144,7 +2440,7 @@
         <v>0.35460000000000003</v>
       </c>
       <c r="G49">
-        <v>0.35460000000000003</v>
+        <v>0.3624</v>
       </c>
       <c r="H49">
         <v>0.60529999999999995</v>
@@ -2158,8 +2454,14 @@
       <c r="K49">
         <v>0.89259999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L49" s="1">
+        <v>3.4340000000000002</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3.6825868033678257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>327.7</v>
       </c>
@@ -2179,7 +2481,7 @@
         <v>0.18740000000000001</v>
       </c>
       <c r="G50">
-        <v>0.18740000000000001</v>
+        <v>0.2077</v>
       </c>
       <c r="H50">
         <v>0.70540000000000003</v>
@@ -2193,8 +2495,14 @@
       <c r="K50">
         <v>0.96830000000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L50" s="1">
+        <v>5.3630000000000004</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3.1863616608770342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>333</v>
       </c>
@@ -2214,7 +2522,7 @@
         <v>0.33110000000000001</v>
       </c>
       <c r="G51">
-        <v>0.33110000000000001</v>
+        <v>0.3271</v>
       </c>
       <c r="H51">
         <v>0.65510000000000002</v>
@@ -2228,8 +2536,14 @@
       <c r="K51">
         <v>0.9304</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L51" s="1">
+        <v>3.4980000000000002</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2.8877958544424058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>336</v>
       </c>
@@ -2249,7 +2563,7 @@
         <v>0.4607</v>
       </c>
       <c r="G52">
-        <v>0.46060000000000001</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="H52">
         <v>0.57999999999999996</v>
@@ -2263,8 +2577,14 @@
       <c r="K52">
         <v>0.88939999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L52" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2.3762821170462671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>336</v>
       </c>
@@ -2284,7 +2604,7 @@
         <v>0.32190000000000002</v>
       </c>
       <c r="G53">
-        <v>0.32179999999999997</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="H53">
         <v>0.67490000000000006</v>
@@ -2298,8 +2618,14 @@
       <c r="K53">
         <v>0.94269999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L53" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M53" s="1">
+        <v>2.5924358500398172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>340</v>
       </c>
@@ -2319,7 +2645,7 @@
         <v>0.47839999999999999</v>
       </c>
       <c r="G54">
-        <v>0.4783</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="H54">
         <v>0.60040000000000004</v>
@@ -2333,8 +2659,14 @@
       <c r="K54">
         <v>0.8992</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L54" s="1">
+        <v>-0.84909999999999997</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2.5879522111594833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>340</v>
       </c>
@@ -2354,7 +2686,7 @@
         <v>0.33879999999999999</v>
       </c>
       <c r="G55">
-        <v>0.33860000000000001</v>
+        <v>0.34960000000000002</v>
       </c>
       <c r="H55">
         <v>0.68140000000000001</v>
@@ -2368,8 +2700,14 @@
       <c r="K55">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L55" s="1">
+        <v>2.387</v>
+      </c>
+      <c r="M55" s="1">
+        <v>2.4823414752860939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>296.2</v>
       </c>
@@ -2389,7 +2727,7 @@
         <v>0.1691</v>
       </c>
       <c r="G56">
-        <v>0.1691</v>
+        <v>0.15179999999999999</v>
       </c>
       <c r="H56">
         <v>0.5625</v>
@@ -2403,8 +2741,14 @@
       <c r="K56">
         <v>0.90359999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L56" s="1">
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="M56" s="1">
+        <v>3.7746991283380718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>313</v>
       </c>
@@ -2424,7 +2768,7 @@
         <v>0.29530000000000001</v>
       </c>
       <c r="G57">
-        <v>0.29530000000000001</v>
+        <v>0.2903</v>
       </c>
       <c r="H57">
         <v>0.5595</v>
@@ -2438,8 +2782,14 @@
       <c r="K57">
         <v>0.87890000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L57" s="1">
+        <v>3.8610000000000002</v>
+      </c>
+      <c r="M57" s="1">
+        <v>3.603704591026871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>313</v>
       </c>
@@ -2459,7 +2809,7 @@
         <v>0.2291</v>
       </c>
       <c r="G58">
-        <v>0.2293</v>
+        <v>0.2064</v>
       </c>
       <c r="H58">
         <v>0.62150000000000005</v>
@@ -2473,8 +2823,14 @@
       <c r="K58">
         <v>0.9204</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L58" s="1">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="M58" s="1">
+        <v>3.4679320531557107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>313</v>
       </c>
@@ -2494,7 +2850,7 @@
         <v>0.1535</v>
       </c>
       <c r="G59">
-        <v>0.1535</v>
+        <v>0.14849999999999999</v>
       </c>
       <c r="H59">
         <v>0.65969999999999995</v>
@@ -2508,8 +2864,14 @@
       <c r="K59">
         <v>0.96630000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L59" s="1">
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="M59" s="1">
+        <v>3.2559358288390645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>323</v>
       </c>
@@ -2529,7 +2891,7 @@
         <v>0.3921</v>
       </c>
       <c r="G60">
-        <v>0.39250000000000002</v>
+        <v>0.3906</v>
       </c>
       <c r="H60">
         <v>0.52610000000000001</v>
@@ -2543,8 +2905,14 @@
       <c r="K60">
         <v>0.86860000000000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L60" s="1">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="M60" s="1">
+        <v>2.9346898142971094</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>323</v>
       </c>
@@ -2564,7 +2932,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="G61">
-        <v>0.23899999999999999</v>
+        <v>0.22839999999999999</v>
       </c>
       <c r="H61">
         <v>0.65559999999999996</v>
@@ -2578,8 +2946,14 @@
       <c r="K61">
         <v>0.94440000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L61" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="M61" s="1">
+        <v>2.5729403780983131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>326</v>
       </c>
@@ -2599,7 +2973,7 @@
         <v>0.33279999999999998</v>
       </c>
       <c r="G62">
-        <v>0.33279999999999998</v>
+        <v>0.34320000000000001</v>
       </c>
       <c r="H62">
         <v>0.59730000000000005</v>
@@ -2613,8 +2987,14 @@
       <c r="K62">
         <v>0.89980000000000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L62" s="1">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="M62" s="1">
+        <v>3.2805135421230203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>333</v>
       </c>
@@ -2634,7 +3014,7 @@
         <v>0.41149999999999998</v>
       </c>
       <c r="G63">
-        <v>0.41120000000000001</v>
+        <v>0.44850000000000001</v>
       </c>
       <c r="H63">
         <v>0.56879999999999997</v>
@@ -2648,8 +3028,14 @@
       <c r="K63">
         <v>0.89049999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L63" s="1">
+        <v>0.9355</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3.178469107680769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>333.1</v>
       </c>
@@ -2669,7 +3055,7 @@
         <v>0.31240000000000001</v>
       </c>
       <c r="G64">
-        <v>0.31230000000000002</v>
+        <v>0.31740000000000002</v>
       </c>
       <c r="H64">
         <v>0.64259999999999995</v>
@@ -2682,6 +3068,12 @@
       </c>
       <c r="K64">
         <v>0.93669999999999998</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2.676962779218254</v>
       </c>
     </row>
   </sheetData>
